--- a/PROBAST_assessment.xlsx
+++ b/PROBAST_assessment.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PsyThera\Projekte_Meinke\Systematic_review\7_Final_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Promotion\sys_review\Analysis_sys_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739B951-EDC8-4A20-957E-9279D8B54AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A96B6-C916-49D1-A22B-B90E1D02098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8925" activeTab="1" xr2:uid="{B8749642-3BAE-4D9E-8344-3A51005E59D2}"/>
+    <workbookView xWindow="37005" yWindow="3030" windowWidth="16545" windowHeight="11175" xr2:uid="{B8749642-3BAE-4D9E-8344-3A51005E59D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Comments" sheetId="2" r:id="rId2"/>
+    <sheet name="Stricter_4.8" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="162">
   <si>
     <t>Study</t>
   </si>
@@ -73,9 +85,6 @@
     <t>41. comments</t>
   </si>
   <si>
-    <t>4.2 comment</t>
-  </si>
-  <si>
     <t>1.1 comments</t>
   </si>
   <si>
@@ -91,25 +100,6 @@
     <t>Final rating</t>
   </si>
   <si>
-    <t>4.3 comment</t>
-  </si>
-  <si>
-    <t>4.4 comment</t>
-  </si>
-  <si>
-    <t>4.5 comment</t>
-  </si>
-  <si>
-    <t>3.2 Was a prespecified or standard outcome definition used?
-Yes/probably yes: If the method of outcome determination is objective, or if a standard outcome definition is used, or if prespecified categories are used to group outcomes. No/probably no: If th</t>
-  </si>
-  <si>
-    <t>4.6 comment</t>
-  </si>
-  <si>
-    <t>4.7 comment</t>
-  </si>
-  <si>
     <t>4.8 comments</t>
   </si>
   <si>
@@ -156,9 +146,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>data leakage: correlation on whole data set</t>
   </si>
   <si>
     <t>NI</t>
@@ -214,12 +201,6 @@
     <t>1.2 Were all inclusions and exclusions of participants appropriate?</t>
   </si>
   <si>
-    <t>Final rating domain 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low risk of bias </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1 Were predictors defined and assessed in a similar way for all participants? </t>
   </si>
   <si>
@@ -243,9 +224,6 @@
   </si>
   <si>
     <t>2.3 Are all predictors available at the time the model is intended to be used?</t>
-  </si>
-  <si>
-    <t>low risk of bias</t>
   </si>
   <si>
     <t xml:space="preserve">3.1 Was the outcome determined appropriately? </t>
@@ -315,14 +293,6 @@
     <t>4.7 Were relevant model performance measures evaluated appropriately?</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3 Were predictors excluded from the outcome definition? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 Was the outcome determined without knowledge of predictor information? 
-</t>
-  </si>
-  <si>
     <t>3.6 Was the time interval between predictor assessment and outcome determination appropriate?</t>
   </si>
   <si>
@@ -332,13 +302,7 @@
     <t xml:space="preserve">3.4 Was the outcome defined and determined in a similar way for all participants? </t>
   </si>
   <si>
-    <t>Final rating domain 3</t>
-  </si>
-  <si>
     <t>Final rating domain 3 comments</t>
-  </si>
-  <si>
-    <t>in the paper, it is written "Hamilton Depression Rating Scale (HAMD), a commonly used, clinician-rated assessment". This suggest that the HAMD was assessed by clinicians</t>
   </si>
   <si>
     <t>in "data in brief" paper: "Clinical assessments were administered by a research psychiatrist"</t>
@@ -500,9 +464,6 @@
   </si>
   <si>
     <t>existing data set: Toronto</t>
-  </si>
-  <si>
-    <t>new data set: CAN-BIND-1</t>
   </si>
   <si>
     <t>existing (?) data set from ZhongDa Hospital of Southeast University (apparently existing data "no new data were created or analyzed in this study", however, it is not clear what the original purpose of data collection was)</t>
@@ -627,15 +588,6 @@
     <t>We rated "No", if the criteria clearly made the study participants unrepresentative of the intended target population. These included "right-handedness", no comorbid disorders (comorbidities with depression are highly frequent), and first episode.</t>
   </si>
   <si>
-    <t>Final rating domain 4</t>
-  </si>
-  <si>
-    <t>high risk of bias</t>
-  </si>
-  <si>
-    <t>Final rating domain 2</t>
-  </si>
-  <si>
     <t>Sun, 2020</t>
   </si>
   <si>
@@ -643,6 +595,57 @@
   </si>
   <si>
     <t>van Waarde, 2015</t>
+  </si>
+  <si>
+    <t>existing data set: CAN-BIND-1</t>
+  </si>
+  <si>
+    <t>in the paper, it is written "Hamilton Depression Rating Scale (HAMD), a commonly used, clinician-rated assessment". This suggests that the HAMD was assessed by clinicians.</t>
+  </si>
+  <si>
+    <t>4.2 comments</t>
+  </si>
+  <si>
+    <t>4.3 comments</t>
+  </si>
+  <si>
+    <t>4.4 comments</t>
+  </si>
+  <si>
+    <t>4.5 comments</t>
+  </si>
+  <si>
+    <t>4.6 comments</t>
+  </si>
+  <si>
+    <t>4.7 comments</t>
+  </si>
+  <si>
+    <t>LOOCV</t>
+  </si>
+  <si>
+    <t>data leakage: correlation on whole data set, LOOCV</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Final rating domain 2 (risk of bias)</t>
+  </si>
+  <si>
+    <t>Final rating domain 1 (risk of bias)</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Final rating domain 3 (risk of bias)</t>
+  </si>
+  <si>
+    <t>Final rating domain 4 (risk of bias)</t>
+  </si>
+  <si>
+    <t>Final rating total (risk of bias)</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
     <tableColumn id="3" xr3:uid="{0ECC605E-E71A-476B-9AFD-91C0436FFE4A}" name="1.1 comments" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{60568866-681C-4C7C-A544-75E0B687FB41}" name="1.2 Were all inclusions and exclusions of participants appropriate? "/>
     <tableColumn id="5" xr3:uid="{EEFE81D9-0B41-44D8-A8F9-3F5EE34D3491}" name="1.2 comments" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4D423994-E209-4AA8-8B69-2C1E356A9357}" name="Final rating domain 1" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{4D423994-E209-4AA8-8B69-2C1E356A9357}" name="Final rating domain 1 (risk of bias)" dataDxfId="8">
       <calculatedColumnFormula>IF(OR(Tabelle2[[#This Row],[1.1 Were appropriate data sources used, e.g., cohort, RCT, or nested case–control study data?]]="N", Tabelle2[[#This Row],[1.1 Were appropriate data sources used, e.g., cohort, RCT, or nested case–control study data?]]="PN",Tabelle2[[#This Row],[1.2 Were all inclusions and exclusions of participants appropriate? ]] ="N"),"high risk of bias","low risk of bias")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00051E36-6F7A-40ED-BA13-CAD169755953}" name="Final rating domain 1 comments"/>
@@ -816,46 +819,48 @@
     <tableColumn id="11" xr3:uid="{8B8BE1CA-FA99-4F9E-8568-C14414D8D049}" name="2.2 comments"/>
     <tableColumn id="12" xr3:uid="{6D2CA614-BF6E-4B4E-9E8F-86F7E1C003E6}" name="2.3 Are all predictors available at the time the model is intended to be used? "/>
     <tableColumn id="13" xr3:uid="{8BF44112-4908-4138-BE18-14264A55BD67}" name="2.3 comments"/>
-    <tableColumn id="14" xr3:uid="{42F0FD57-2FB9-4205-B226-95BD2EE4B12F}" name="Final rating domain 2"/>
+    <tableColumn id="14" xr3:uid="{42F0FD57-2FB9-4205-B226-95BD2EE4B12F}" name="Final rating domain 2 (risk of bias)"/>
     <tableColumn id="15" xr3:uid="{8BF137DF-69F1-4303-826C-6DC0E82AE0EE}" name="Final rating domain 2 comments"/>
     <tableColumn id="16" xr3:uid="{F44FAE7D-8EA4-4812-92E1-8FFCEB1831D1}" name="3.1 Was the outcome determined appropriately? "/>
     <tableColumn id="17" xr3:uid="{8D2F6AAB-A0DB-421B-8EDA-C2DAE0458F36}" name="3.1 comments" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{7D774ED9-4769-4E2B-BC4C-D3BECB902CF0}" name="3.2 Was a prespecified or standard outcome definition used?_x000a_Yes/probably yes: If the method of outcome determination is objective, or if a standard outcome definition is used, or if prespecified categories are used to group outcomes. No/probably no: If th"/>
+    <tableColumn id="18" xr3:uid="{7D774ED9-4769-4E2B-BC4C-D3BECB902CF0}" name="3.2 Was a prespecified or standard outcome definition used?"/>
     <tableColumn id="19" xr3:uid="{E2EBEB4D-21A2-461C-8E4B-EE6238BA8044}" name="3.2 comments"/>
-    <tableColumn id="20" xr3:uid="{8F677B22-F5A2-42B5-8E53-8A9DD35273D4}" name="3.3 Were predictors excluded from the outcome definition? _x000a_"/>
+    <tableColumn id="20" xr3:uid="{8F677B22-F5A2-42B5-8E53-8A9DD35273D4}" name="3.3 Were predictors excluded from the outcome definition? "/>
     <tableColumn id="21" xr3:uid="{10F8C6CE-9B7C-4A56-9A45-E56EBE2E0A88}" name="3.3 comments"/>
     <tableColumn id="22" xr3:uid="{E391ACF1-531A-41A4-AD91-DFD33FF1575F}" name="3.4 Was the outcome defined and determined in a similar way for all participants? "/>
     <tableColumn id="23" xr3:uid="{38E8A3B0-1ECE-442F-9F2C-A8124DA19A65}" name="3.4. comments"/>
-    <tableColumn id="24" xr3:uid="{52AB44CF-6C55-4FF0-A9D9-82D3BF46ACB8}" name="3.5 Was the outcome determined without knowledge of predictor information? _x000a_"/>
+    <tableColumn id="24" xr3:uid="{52AB44CF-6C55-4FF0-A9D9-82D3BF46ACB8}" name="3.5 Was the outcome determined without knowledge of predictor information? "/>
     <tableColumn id="25" xr3:uid="{E70144F2-3671-4ECF-BD8A-6C8446DC957D}" name="3.5 comments"/>
     <tableColumn id="26" xr3:uid="{95B6BE56-BE8E-4D28-A868-9B8C6A9988F6}" name="3.6 Was the time interval between predictor assessment and outcome determination appropriate?"/>
     <tableColumn id="27" xr3:uid="{5932DAFF-C075-4645-A3C1-4D0EA36FF774}" name="3.6. comments"/>
-    <tableColumn id="50" xr3:uid="{9B97B8F3-4A66-462A-893C-ACC9F7EABB40}" name="Final rating domain 3" dataDxfId="6">
+    <tableColumn id="50" xr3:uid="{9B97B8F3-4A66-462A-893C-ACC9F7EABB40}" name="Final rating domain 3 (risk of bias)" dataDxfId="6">
       <calculatedColumnFormula>IF(OR(P3="N", R3 ="N", T3 = "N", V3 = "N",  X3="N", Z3 = "N"),"high risk of bias","low risk of bias")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="49" xr3:uid="{4D1A01DB-D920-4AFC-83CF-65823023C5CE}" name="Final rating domain 3 comments"/>
     <tableColumn id="28" xr3:uid="{1DC2895B-BC3E-4791-AD0E-833A185255AB}" name="4.1 Were there a reasonable number of participants with the outcome?_x000a_ "/>
     <tableColumn id="29" xr3:uid="{6E3394C8-21DA-48F4-BFD7-1FBD6CD6F7C8}" name="41. comments"/>
     <tableColumn id="30" xr3:uid="{5BD47320-1BA6-4FE5-9B35-949C3912A4A0}" name="4.2 Were continuous and categorical predictors handled appropriately?_x000a_"/>
-    <tableColumn id="31" xr3:uid="{E33463AE-475D-452C-A4D0-7CC5F2C8A290}" name="4.2 comment"/>
+    <tableColumn id="31" xr3:uid="{E33463AE-475D-452C-A4D0-7CC5F2C8A290}" name="4.2 comments"/>
     <tableColumn id="32" xr3:uid="{79A80628-35AC-44CF-AE13-AFDB77753080}" name="4.3 Were all enrolled participants included in the analysis?"/>
-    <tableColumn id="33" xr3:uid="{2A640A24-CB49-46DD-B71F-FC8A75B65906}" name="4.3 comment"/>
+    <tableColumn id="33" xr3:uid="{2A640A24-CB49-46DD-B71F-FC8A75B65906}" name="4.3 comments"/>
     <tableColumn id="34" xr3:uid="{9891EE71-453A-4055-91B4-DD314A859586}" name="4.4 Were participants with missing data handled appropriately?"/>
-    <tableColumn id="35" xr3:uid="{3D811980-D4C6-4D98-A7B3-8B5F66A29BAF}" name="4.4 comment"/>
+    <tableColumn id="35" xr3:uid="{3D811980-D4C6-4D98-A7B3-8B5F66A29BAF}" name="4.4 comments"/>
     <tableColumn id="36" xr3:uid="{3AC1CF16-4E79-478C-B74B-1D7CACE8BF77}" name="4.5 Was selection of predictors based on univariable analysis avoided?" dataDxfId="5"/>
-    <tableColumn id="37" xr3:uid="{A6E9DB8B-6D48-4829-A2F7-AB74818B2BF1}" name="4.5 comment"/>
+    <tableColumn id="37" xr3:uid="{A6E9DB8B-6D48-4829-A2F7-AB74818B2BF1}" name="4.5 comments"/>
     <tableColumn id="46" xr3:uid="{42164BC4-7D21-43CA-837B-E0E64A46E5E0}" name="4.6 Were complexities in the data (e.g., censoring, competing risks, sampling of control participants) accounted for appropriately?"/>
-    <tableColumn id="47" xr3:uid="{25F566F1-5038-481D-BC82-CF0D42DCE63C}" name="4.6 comment"/>
+    <tableColumn id="47" xr3:uid="{25F566F1-5038-481D-BC82-CF0D42DCE63C}" name="4.6 comments"/>
     <tableColumn id="45" xr3:uid="{9614DF6C-CCF6-4EFF-B0F1-328DBE7CCB71}" name="4.7 Were relevant model performance measures evaluated appropriately?"/>
-    <tableColumn id="44" xr3:uid="{1042CAB7-9D16-44F1-B18C-785D6A6E3BC0}" name="4.7 comment"/>
+    <tableColumn id="44" xr3:uid="{1042CAB7-9D16-44F1-B18C-785D6A6E3BC0}" name="4.7 comments"/>
     <tableColumn id="43" xr3:uid="{F8FA17F8-A924-4B00-BE60-6B834C0CB2EA}" name="4.8 Were model overfitting and optimism in model performance accounted for? "/>
     <tableColumn id="42" xr3:uid="{0F26B6C2-8B2D-4EF3-A07B-B81583074542}" name="4.8 comments"/>
     <tableColumn id="41" xr3:uid="{725F3E9E-AB38-4F98-8539-54187D6D5585}" name="4.9 Do predictors and their assigned weights in the final model correspond to the results from the reported multivariable analysis? (development studies only)" dataDxfId="4"/>
     <tableColumn id="40" xr3:uid="{8C6AF069-E156-4DFC-9D4F-4DB4C856C00A}" name="4.9 comments"/>
-    <tableColumn id="39" xr3:uid="{9DBACB64-7C39-4755-84DD-7C56A7B35E19}" name="Final rating domain 4"/>
+    <tableColumn id="39" xr3:uid="{9DBACB64-7C39-4755-84DD-7C56A7B35E19}" name="Final rating domain 4 (risk of bias)">
+      <calculatedColumnFormula>IF(OR(AD3="N", AF3 ="N", AH3 = "N", AJ3 = "N",  AL3="N", AN3 = "N", AP3 = "N", AR3="N"),"high","low")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="48" xr3:uid="{EB49B375-01DF-4ACA-A32D-89F2CA323381}" name="Final rating 4 comments"/>
-    <tableColumn id="38" xr3:uid="{2FCE091F-57FC-4536-A67C-0E95BED37986}" name="Final rating" dataDxfId="3">
-      <calculatedColumnFormula>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</calculatedColumnFormula>
+    <tableColumn id="38" xr3:uid="{2FCE091F-57FC-4536-A67C-0E95BED37986}" name="Final rating total (risk of bias)" dataDxfId="3">
+      <calculatedColumnFormula>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1173,57 +1178,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C35B37-9F45-42B1-B12B-0D98039688EF}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="25.81640625" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+    <col min="23" max="23" width="16.26953125" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="27" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="29.140625" customWidth="1"/>
-    <col min="31" max="31" width="6.5703125" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" customWidth="1"/>
-    <col min="34" max="34" width="27.5703125" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="37" max="37" width="24.140625" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="28.5703125" customWidth="1"/>
-    <col min="41" max="41" width="6.42578125" customWidth="1"/>
-    <col min="42" max="42" width="17.140625" customWidth="1"/>
-    <col min="43" max="43" width="7.85546875" customWidth="1"/>
-    <col min="44" max="44" width="28.140625" customWidth="1"/>
-    <col min="45" max="45" width="13.140625" customWidth="1"/>
-    <col min="46" max="46" width="17.28515625" customWidth="1"/>
-    <col min="47" max="47" width="8.85546875" customWidth="1"/>
-    <col min="48" max="49" width="14.85546875" customWidth="1"/>
-    <col min="50" max="50" width="29.85546875" customWidth="1"/>
+    <col min="27" max="29" width="16.26953125" customWidth="1"/>
+    <col min="30" max="30" width="29.1796875" customWidth="1"/>
+    <col min="31" max="31" width="6.54296875" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" customWidth="1"/>
+    <col min="33" max="33" width="8.54296875" customWidth="1"/>
+    <col min="34" max="34" width="27.54296875" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" customWidth="1"/>
+    <col min="36" max="36" width="21.81640625" customWidth="1"/>
+    <col min="37" max="37" width="24.1796875" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" customWidth="1"/>
+    <col min="39" max="39" width="6.54296875" customWidth="1"/>
+    <col min="40" max="40" width="28.54296875" customWidth="1"/>
+    <col min="41" max="41" width="6.453125" customWidth="1"/>
+    <col min="42" max="42" width="17.1796875" customWidth="1"/>
+    <col min="43" max="43" width="7.81640625" customWidth="1"/>
+    <col min="44" max="44" width="28.1796875" customWidth="1"/>
+    <col min="45" max="45" width="13.1796875" customWidth="1"/>
+    <col min="46" max="46" width="17.26953125" customWidth="1"/>
+    <col min="47" max="47" width="8.81640625" customWidth="1"/>
+    <col min="48" max="49" width="14.81640625" customWidth="1"/>
+    <col min="50" max="50" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1269,1380 +1274,1380 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AX1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="AX2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AL3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AN3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV3" t="str">
-        <f t="shared" ref="AV3:AV15" si="0">IF(OR(AD3="N", AF3 ="N", AH3 = "N", AJ3 = "N",  AL3="N", AN3 = "N", AP3 = "N", AR3="N"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
+        <f>IF(OR(AD3="N", AF3 ="N", AH3 = "N", AJ3 = "N",  AL3="N", AN3 = "N", AP3 = "N", AR3="N"),"high","low")</f>
+        <v>high</v>
       </c>
       <c r="AX3" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AM4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV4" t="str">
-        <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <f t="shared" ref="AV4:AV15" si="0">IF(OR(AD4="N", AF4 ="N", AH4 = "N", AJ4 = "N",  AL4="N", AN4 = "N", AP4 = "N", AR4="N"),"high","low")</f>
+        <v>high</v>
       </c>
       <c r="AX4" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AN5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AS5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV5" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX5" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV6" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX6" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AJ7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AN7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AS7" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV7" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX7" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV8" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX8" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AI9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AJ9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AN9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT9" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV9" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX9" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM10" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>48</v>
-      </c>
       <c r="AN10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV10" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX10" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB11" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="AJ11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="AN11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AS11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AT11" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV11" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX11" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB12" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AI12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AJ12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AS12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV12" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX12" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM13" t="s">
         <v>42</v>
       </c>
-      <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>50</v>
-      </c>
       <c r="AN13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT13" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV13" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX13" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB14" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AM14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AN14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT14" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV14" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX14" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AB15" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="AD15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AF15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AI15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="AJ15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AN15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AR15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AT15" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV15" t="str">
         <f t="shared" si="0"/>
-        <v>high risk of bias</v>
+        <v>high</v>
       </c>
       <c r="AX15" t="str">
-        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1]]="high risk of bias", Tabelle2[[#This Row],[Final rating domain 2]] ="high risk of bias", Tabelle2[[#This Row],[Final rating domain 3]] = "high risk of bias", Tabelle2[[#This Row],[Final rating domain 4]] = "high risk of bias"),"high risk of bias","low risk of bias")</f>
-        <v>high risk of bias</v>
+        <f>IF(OR(Tabelle2[[#This Row],[Final rating domain 1 (risk of bias)]]="high", Tabelle2[[#This Row],[Final rating domain 2 (risk of bias)]] ="high", Tabelle2[[#This Row],[Final rating domain 3 (risk of bias)]] = "high", Tabelle2[[#This Row],[Final rating domain 4 (risk of bias)]] = "high"),"high","low")</f>
+        <v>high</v>
       </c>
     </row>
   </sheetData>
@@ -2658,244 +2663,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60E0CC9-97C7-46DE-88D4-EBB061833800}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="102.453125" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="14" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="144.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2905,4 +2910,116 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22C4837-DD97-4B1D-8881-CE28175B19BF}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>